--- a/assets/Report Template - Calcium Carbonate Scale Block Analysis.xlsx
+++ b/assets/Report Template - Calcium Carbonate Scale Block Analysis.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\P\Documents\GitHub\pct-scalewiz\demo\sample_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\P\Documents\GitHub\pct-scalewiz\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -145,13 +145,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="6">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
     <numFmt numFmtId="166" formatCode="#,##0.0"/>
     <numFmt numFmtId="167" formatCode="0\ &quot;psi&quot;"/>
-    <numFmt numFmtId="168" formatCode="0.0%"/>
-    <numFmt numFmtId="169" formatCode="0\ &quot;°F&quot;"/>
+    <numFmt numFmtId="168" formatCode="0\ &quot;°F&quot;"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -355,7 +354,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -370,13 +369,19 @@
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -395,10 +400,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -428,7 +433,7 @@
     <xf numFmtId="166" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -488,17 +493,60 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="14">
+    <dxf>
+      <numFmt numFmtId="172" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="172" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode="#%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="172" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="172" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode="#%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="173" formatCode="General\%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="172" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="172" formatCode="0.0%"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -922,8 +970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22:I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -943,475 +991,479 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="34"/>
-      <c r="B1" s="34"/>
-      <c r="C1" s="35" t="s">
+      <c r="A1" s="36"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
     </row>
     <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="37"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
+      <c r="A3" s="39"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
     </row>
     <row r="4" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
       <c r="G4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H4" s="2"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
     </row>
     <row r="5" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="38" t="s">
+      <c r="B5" s="40"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="38"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
     </row>
     <row r="6" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
       <c r="G6" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H6" s="3"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
     </row>
     <row r="7" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
       <c r="G7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H7" s="1"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
     </row>
     <row r="8" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
     </row>
     <row r="9" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
     </row>
     <row r="10" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="28">
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="30">
         <v>200</v>
       </c>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
     </row>
     <row r="11" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="32">
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="34">
         <v>75</v>
       </c>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
     </row>
     <row r="12" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11" t="s">
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
     </row>
     <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11" t="s">
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
     </row>
     <row r="14" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="31"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
+      <c r="A14" s="33"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
     </row>
     <row r="15" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
       <c r="D15" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="20"/>
+      <c r="F15" s="22"/>
       <c r="G15" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H15" s="20" t="s">
+      <c r="H15" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
     </row>
     <row r="16" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
       <c r="D16" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="26"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="33">
+      <c r="E16" s="28"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="35">
         <f>(E16+E17)/2</f>
         <v>0</v>
       </c>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
     </row>
     <row r="17" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
       <c r="D17" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="26"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
     </row>
     <row r="18" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
       <c r="D18" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="E18" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="20"/>
+      <c r="F18" s="22"/>
       <c r="G18" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H18" s="23" t="s">
+      <c r="H18" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="I18" s="23"/>
-      <c r="J18" s="20" t="s">
+      <c r="I18" s="25"/>
+      <c r="J18" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="K18" s="20"/>
+      <c r="K18" s="22"/>
     </row>
     <row r="19" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="45"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="49"/>
+      <c r="A19" s="47"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="12"/>
       <c r="G19" s="7"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="18"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="20"/>
     </row>
     <row r="20" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="45"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="49"/>
+      <c r="A20" s="47"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="12"/>
       <c r="G20" s="7"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="18"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="20"/>
     </row>
     <row r="21" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="45"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="49"/>
+      <c r="A21" s="47"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="12"/>
       <c r="G21" s="7"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="18"/>
+      <c r="H21" s="50">
+        <v>0.01</v>
+      </c>
+      <c r="I21" s="51"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="20"/>
     </row>
     <row r="22" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="45"/>
-      <c r="B22" s="46"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="49"/>
+      <c r="A22" s="47"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="12"/>
       <c r="G22" s="7"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="18"/>
+      <c r="H22" s="50">
+        <v>1</v>
+      </c>
+      <c r="I22" s="51"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="20"/>
     </row>
     <row r="23" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="45"/>
-      <c r="B23" s="46"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="49"/>
+      <c r="A23" s="47"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12"/>
       <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="18"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="20"/>
     </row>
     <row r="24" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="45"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="49"/>
+      <c r="A24" s="47"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
       <c r="G24" s="7"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="18"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="20"/>
     </row>
     <row r="25" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="45"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="49"/>
+      <c r="A25" s="47"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="12"/>
       <c r="G25" s="7"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="18"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="20"/>
     </row>
     <row r="26" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="45"/>
-      <c r="B26" s="46"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="49"/>
+      <c r="A26" s="47"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="12"/>
       <c r="G26" s="7"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="18"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="20"/>
     </row>
     <row r="27" spans="1:11" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
     </row>
     <row r="28" spans="1:11" ht="202.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
     </row>
     <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="16"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="15">
+      <c r="B29" s="18"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="17">
         <f>I7</f>
         <v>0</v>
       </c>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14" t="s">
+      <c r="B30" s="15"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="71">
+  <mergeCells count="79">
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="A26:C26"/>
@@ -1483,8 +1535,24 @@
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="J25:K25"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="H19:I26">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="greaterThanOrEqual">
+      <formula>100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.36" footer="0.33"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/assets/Report Template - Calcium Carbonate Scale Block Analysis.xlsx
+++ b/assets/Report Template - Calcium Carbonate Scale Block Analysis.xlsx
@@ -354,7 +354,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -369,49 +369,120 @@
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -420,78 +491,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -503,48 +502,12 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="2">
     <dxf>
-      <numFmt numFmtId="172" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="172" formatCode="0.0%"/>
+      <numFmt numFmtId="169" formatCode="0.0%"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="#%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="172" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="172" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="#%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="173" formatCode="General\%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="172" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="172" formatCode="0.0%"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -579,7 +542,7 @@
         <xdr:cNvPr id="2471" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6989E559-3C3D-42B3-B243-B5FCAADE688F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6989E559-3C3D-42B3-B243-B5FCAADE688F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -639,13 +602,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>582930</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>8381</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>2542031</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -668,7 +631,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="6305550"/>
+          <a:off x="0" y="6267450"/>
           <a:ext cx="6355080" cy="2542031"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -970,8 +933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22:I22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -991,113 +954,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="36"/>
-      <c r="B1" s="36"/>
-      <c r="C1" s="37" t="s">
+      <c r="A1" s="23"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
     </row>
     <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="39"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
     </row>
     <row r="4" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
       <c r="G4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H4" s="2"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
     </row>
     <row r="5" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="40" t="s">
+      <c r="B5" s="15"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="40"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
     </row>
     <row r="6" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
       <c r="G6" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H6" s="3"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
     </row>
     <row r="7" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
       <c r="G7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H7" s="1"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
     </row>
     <row r="8" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="16"/>
@@ -1113,343 +1076,339 @@
       <c r="K8" s="16"/>
     </row>
     <row r="9" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
     </row>
     <row r="10" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="30">
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="32">
         <v>200</v>
       </c>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
     </row>
     <row r="11" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="34">
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="38">
         <v>75</v>
       </c>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
     </row>
     <row r="12" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13" t="s">
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
     </row>
     <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13" t="s">
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
     </row>
     <row r="14" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="33"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33"/>
+      <c r="A14" s="37"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
     </row>
     <row r="15" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
       <c r="D15" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="22"/>
+      <c r="F15" s="36"/>
       <c r="G15" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H15" s="22" t="s">
+      <c r="H15" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
     </row>
     <row r="16" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
       <c r="D16" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="28"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="35">
+      <c r="E16" s="29"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="39">
         <f>(E16+E17)/2</f>
         <v>0</v>
       </c>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
     </row>
     <row r="17" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
       <c r="D17" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="28"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
     </row>
     <row r="18" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="47"/>
       <c r="D18" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="22" t="s">
+      <c r="E18" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="22"/>
+      <c r="F18" s="36"/>
       <c r="G18" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H18" s="25" t="s">
+      <c r="H18" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="I18" s="25"/>
-      <c r="J18" s="22" t="s">
+      <c r="I18" s="48"/>
+      <c r="J18" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="K18" s="22"/>
+      <c r="K18" s="36"/>
     </row>
     <row r="19" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="47"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="12"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="14"/>
       <c r="G19" s="7"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="20"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="41"/>
     </row>
     <row r="20" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="47"/>
-      <c r="B20" s="48"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="12"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="14"/>
       <c r="G20" s="7"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="20"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="41"/>
     </row>
     <row r="21" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="47"/>
-      <c r="B21" s="48"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="14"/>
       <c r="G21" s="7"/>
-      <c r="H21" s="50">
-        <v>0.01</v>
-      </c>
-      <c r="I21" s="51"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="20"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="41"/>
     </row>
     <row r="22" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="47"/>
-      <c r="B22" s="48"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="12"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="14"/>
       <c r="G22" s="7"/>
-      <c r="H22" s="50">
-        <v>1</v>
-      </c>
-      <c r="I22" s="51"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="20"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="41"/>
     </row>
     <row r="23" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="47"/>
-      <c r="B23" s="48"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="12"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="14"/>
       <c r="G23" s="7"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="20"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="41"/>
     </row>
     <row r="24" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="47"/>
-      <c r="B24" s="48"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="12"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="14"/>
       <c r="G24" s="7"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="20"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="41"/>
     </row>
     <row r="25" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="47"/>
-      <c r="B25" s="48"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="12"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="14"/>
       <c r="G25" s="7"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="20"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="41"/>
     </row>
     <row r="26" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="47"/>
-      <c r="B26" s="48"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="12"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="14"/>
       <c r="G26" s="7"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="20"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="41"/>
     </row>
     <row r="27" spans="1:11" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
+      <c r="A27" s="42"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="43"/>
     </row>
     <row r="28" spans="1:11" ht="202.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
     </row>
     <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="18" t="s">
+      <c r="A29" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="18"/>
+      <c r="B29" s="45"/>
       <c r="C29" s="16"/>
       <c r="D29" s="16"/>
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
       <c r="G29" s="16"/>
       <c r="H29" s="16"/>
-      <c r="I29" s="17">
+      <c r="I29" s="44">
         <f>I7</f>
         <v>0</v>
       </c>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="44"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="15"/>
+      <c r="B30" s="43"/>
       <c r="C30" s="16"/>
       <c r="D30" s="16"/>
       <c r="E30" s="16"/>
@@ -1463,7 +1422,71 @@
       <c r="K30" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="79">
+  <mergeCells count="80">
+    <mergeCell ref="A28:K28"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="D13:K13"/>
+    <mergeCell ref="A27:K27"/>
+    <mergeCell ref="C30:H30"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:H29"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D10:K10"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="A14:K14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="D11:K11"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="D12:K12"/>
+    <mergeCell ref="H16:K17"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:K2"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="I7:K7"/>
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="A26:C26"/>
@@ -1480,76 +1503,13 @@
     <mergeCell ref="A21:C21"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="A9:K9"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:K2"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D10:K10"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="A14:K14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="D11:K11"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="D12:K12"/>
-    <mergeCell ref="H16:K17"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="D13:K13"/>
-    <mergeCell ref="A27:K27"/>
-    <mergeCell ref="C30:H30"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:H29"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H19:I26">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="greaterThanOrEqual">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/assets/Report Template - Calcium Carbonate Scale Block Analysis.xlsx
+++ b/assets/Report Template - Calcium Carbonate Scale Block Analysis.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="CaCO3 Scale Block" sheetId="3" r:id="rId1"/>
@@ -354,11 +354,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -375,6 +372,93 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
@@ -391,111 +475,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -542,7 +539,7 @@
         <xdr:cNvPr id="2471" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6989E559-3C3D-42B3-B243-B5FCAADE688F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6989E559-3C3D-42B3-B243-B5FCAADE688F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -934,504 +931,546 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:K9"/>
+      <selection activeCell="I4" sqref="I4:K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="11" style="4" customWidth="1"/>
-    <col min="3" max="3" width="3.42578125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="5.85546875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="4" style="4" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" style="4" customWidth="1"/>
-    <col min="10" max="10" width="6.28515625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="4" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="1" customWidth="1"/>
+    <col min="3" max="3" width="3.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="4" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="6.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="23"/>
-      <c r="B1" s="23"/>
-      <c r="C1" s="24" t="s">
+      <c r="A1" s="32"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
     </row>
     <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
+      <c r="A3" s="34"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
     </row>
     <row r="4" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="2" t="s">
+      <c r="B4" s="41"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
     </row>
     <row r="5" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="15" t="s">
+      <c r="B5" s="41"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="15"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
     </row>
     <row r="6" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="3" t="s">
+      <c r="B6" s="41"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
     </row>
     <row r="7" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="1" t="s">
+      <c r="B7" s="42"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
     </row>
     <row r="8" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
     </row>
     <row r="9" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
     </row>
     <row r="10" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="32">
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="26">
         <v>200</v>
       </c>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
     </row>
     <row r="11" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="38">
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="30">
         <v>75</v>
       </c>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
     </row>
     <row r="12" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35" t="s">
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
     </row>
     <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35" t="s">
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
     </row>
     <row r="14" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="37"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
     </row>
     <row r="15" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="5" t="s">
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="36" t="s">
+      <c r="E15" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="36"/>
-      <c r="G15" s="5" t="s">
+      <c r="F15" s="18"/>
+      <c r="G15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H15" s="36" t="s">
+      <c r="H15" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
     </row>
     <row r="16" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="6" t="s">
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="29"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="39">
+      <c r="E16" s="24"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="31">
         <f>(E16+E17)/2</f>
         <v>0</v>
       </c>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
     </row>
     <row r="17" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="6" t="s">
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="29"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="39"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
     </row>
     <row r="18" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="46" t="s">
+      <c r="A18" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="47"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="5" t="s">
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="36" t="s">
+      <c r="E18" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="36"/>
-      <c r="G18" s="5" t="s">
+      <c r="F18" s="18"/>
+      <c r="G18" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H18" s="48" t="s">
+      <c r="H18" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="I18" s="48"/>
-      <c r="J18" s="36" t="s">
+      <c r="I18" s="21"/>
+      <c r="J18" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="K18" s="36"/>
+      <c r="K18" s="18"/>
     </row>
     <row r="19" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="10"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="41"/>
+      <c r="A19" s="36"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="16"/>
     </row>
     <row r="20" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="10"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="41"/>
+      <c r="A20" s="36"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="16"/>
     </row>
     <row r="21" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="41"/>
+      <c r="A21" s="36"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="16"/>
     </row>
     <row r="22" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="41"/>
+      <c r="A22" s="36"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="16"/>
     </row>
     <row r="23" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="41"/>
+      <c r="A23" s="36"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="16"/>
     </row>
     <row r="24" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="41"/>
+      <c r="A24" s="36"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="16"/>
     </row>
     <row r="25" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="10"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="41"/>
+      <c r="A25" s="36"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="16"/>
     </row>
     <row r="26" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="10"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="41"/>
+      <c r="A26" s="36"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="16"/>
     </row>
     <row r="27" spans="1:11" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="42"/>
-      <c r="B27" s="42"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="43"/>
-      <c r="K27" s="43"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
     </row>
     <row r="28" spans="1:11" ht="202.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="16"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
     </row>
     <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="45" t="s">
+      <c r="A29" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="45"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="44">
+      <c r="B29" s="14"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="13">
         <f>I7</f>
         <v>0</v>
       </c>
-      <c r="J29" s="44"/>
-      <c r="K29" s="44"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A30" s="43" t="s">
+      <c r="A30" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="43"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16" t="s">
+      <c r="B30" s="12"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="80">
-    <mergeCell ref="A28:K28"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
+  <mergeCells count="83">
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:K2"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D10:K10"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="A14:K14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="D11:K11"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="D12:K12"/>
+    <mergeCell ref="H16:K17"/>
+    <mergeCell ref="A10:C10"/>
     <mergeCell ref="D13:K13"/>
     <mergeCell ref="A27:K27"/>
     <mergeCell ref="C30:H30"/>
@@ -1448,61 +1487,22 @@
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="J25:K25"/>
+    <mergeCell ref="A28:K28"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
     <mergeCell ref="J23:K23"/>
     <mergeCell ref="J24:K24"/>
     <mergeCell ref="J22:K22"/>
     <mergeCell ref="J20:K20"/>
     <mergeCell ref="J21:K21"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D10:K10"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="A14:K14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="D11:K11"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="D12:K12"/>
-    <mergeCell ref="H16:K17"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:K2"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="A9:K9"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I7:K7"/>
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H19:I26">
